--- a/测试数据-教师.xlsx
+++ b/测试数据-教师.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirno\Documents\IdeaProjects\gdp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CFADD0-B9B2-45DA-9F5C-F7B7D210B70F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB4EABB-3D58-4282-9C7B-4811B0B1DC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E690BEA9-E24C-4EF2-B866-2B8AE1A9A855}"/>
   </bookViews>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +88,6 @@
   </si>
   <si>
     <t>学院Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,315 +452,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B8838E-5D0C-4D33-B9AA-350C47A9886B}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2000</v>
-      </c>
       <c r="B2">
-        <v>2000</v>
-      </c>
-      <c r="C2" t="s">
+        <v>1111111111</v>
+      </c>
+      <c r="C2">
+        <v>111111111111111</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1111111111</v>
-      </c>
-      <c r="E2">
-        <v>111111111111111</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2001</v>
-      </c>
       <c r="B3">
-        <v>2000</v>
-      </c>
-      <c r="C3" t="s">
+        <v>1111111112</v>
+      </c>
+      <c r="C3">
+        <v>111111111111112</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1111111111</v>
-      </c>
-      <c r="E3">
-        <v>111111111111111</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2002</v>
-      </c>
       <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="s">
+        <v>1111111113</v>
+      </c>
+      <c r="C4">
+        <v>111111111111113</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>1111111111</v>
-      </c>
-      <c r="E4">
-        <v>111111111111111</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2003</v>
-      </c>
       <c r="B5">
-        <v>2000</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1111111114</v>
+      </c>
+      <c r="C5">
+        <v>111111111111114</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>1111111111</v>
-      </c>
-      <c r="E5">
-        <v>111111111111111</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2004</v>
-      </c>
       <c r="B6">
-        <v>2000</v>
-      </c>
-      <c r="C6" t="s">
+        <v>1111111115</v>
+      </c>
+      <c r="C6">
+        <v>111111111111115</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>1111111111</v>
-      </c>
-      <c r="E6">
-        <v>111111111111111</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2005</v>
-      </c>
       <c r="B7">
-        <v>2000</v>
-      </c>
-      <c r="C7" t="s">
+        <v>1111111116</v>
+      </c>
+      <c r="C7">
+        <v>111111111111116</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>1111111111</v>
-      </c>
-      <c r="E7">
-        <v>111111111111111</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2006</v>
-      </c>
       <c r="B8">
-        <v>2000</v>
-      </c>
-      <c r="C8" t="s">
+        <v>1111111117</v>
+      </c>
+      <c r="C8">
+        <v>111111111111117</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>1111111111</v>
-      </c>
-      <c r="E8">
-        <v>111111111111111</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2007</v>
-      </c>
       <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
+        <v>1111111118</v>
+      </c>
+      <c r="C9">
+        <v>111111111111118</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>1111111111</v>
-      </c>
-      <c r="E9">
-        <v>111111111111111</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2008</v>
-      </c>
       <c r="B10">
-        <v>2000</v>
-      </c>
-      <c r="C10" t="s">
+        <v>1111111119</v>
+      </c>
+      <c r="C10">
+        <v>111111111111119</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>1111111111</v>
-      </c>
-      <c r="E10">
-        <v>111111111111111</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2009</v>
-      </c>
       <c r="B11">
-        <v>2000</v>
-      </c>
-      <c r="C11" t="s">
+        <v>1111111120</v>
+      </c>
+      <c r="C11">
+        <v>111111111111120</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>1111111111</v>
-      </c>
-      <c r="E11">
-        <v>111111111111111</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2010</v>
-      </c>
       <c r="B12">
-        <v>2000</v>
-      </c>
-      <c r="C12" t="s">
+        <v>1111111121</v>
+      </c>
+      <c r="C12">
+        <v>111111111111121</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>1111111111</v>
-      </c>
-      <c r="E12">
-        <v>111111111111111</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2011</v>
-      </c>
       <c r="B13">
-        <v>2000</v>
-      </c>
-      <c r="C13" t="s">
+        <v>1111111122</v>
+      </c>
+      <c r="C13">
+        <v>111111111111122</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>1111111111</v>
-      </c>
-      <c r="E13">
-        <v>111111111111111</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2012</v>
-      </c>
       <c r="B14">
-        <v>2000</v>
-      </c>
-      <c r="C14" t="s">
+        <v>1111111123</v>
+      </c>
+      <c r="C14">
+        <v>111111111111123</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="D14">
-        <v>1111111111</v>
-      </c>
-      <c r="E14">
-        <v>111111111111111</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2013</v>
-      </c>
       <c r="B15">
-        <v>2000</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
+        <v>1111111124</v>
+      </c>
+      <c r="C15">
+        <v>111111111111124</v>
       </c>
       <c r="D15">
-        <v>1111111111</v>
-      </c>
-      <c r="E15">
-        <v>111111111111111</v>
-      </c>
-      <c r="F15">
         <v>1</v>
       </c>
     </row>
